--- a/results/resulComparisonTonic.xlsx
+++ b/results/resulComparisonTonic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="320">
   <si>
     <t>16_makamda_ud_taksimleri/14_acemasiran.mp3</t>
   </si>
@@ -873,18 +873,6 @@
     <t>FileName</t>
   </si>
   <si>
-    <t>TonicCalc</t>
-  </si>
-  <si>
-    <t>TonicAnnot</t>
-  </si>
-  <si>
-    <t>MakamCalc</t>
-  </si>
-  <si>
-    <t>MakamAnnot</t>
-  </si>
-  <si>
     <t>Success</t>
   </si>
   <si>
@@ -898,6 +886,99 @@
   </si>
   <si>
     <t>Distance (Koma)</t>
+  </si>
+  <si>
+    <t>Makam Calc</t>
+  </si>
+  <si>
+    <t>Tonic Calc</t>
+  </si>
+  <si>
+    <t>Tonic Annot</t>
+  </si>
+  <si>
+    <t>Makam Annot</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>makam: Acemasiran</t>
+  </si>
+  <si>
+    <t>makam: Bestenigar</t>
+  </si>
+  <si>
+    <t>makam: Beyati</t>
+  </si>
+  <si>
+    <t>makam: Beyatiaraban</t>
+  </si>
+  <si>
+    <t>makam: Ferahfeza</t>
+  </si>
+  <si>
+    <t>makam: Hicaz</t>
+  </si>
+  <si>
+    <t>makam: Hicazkar</t>
+  </si>
+  <si>
+    <t>makam: Huseyni</t>
+  </si>
+  <si>
+    <t>makam: Huzzam</t>
+  </si>
+  <si>
+    <t>makam: Karcigar</t>
+  </si>
+  <si>
+    <t>makam: Kurdilihicazkar</t>
+  </si>
+  <si>
+    <t>makam: Mahur</t>
+  </si>
+  <si>
+    <t>makam: Muhayyer</t>
+  </si>
+  <si>
+    <t>makam: Mustear</t>
+  </si>
+  <si>
+    <t>makam: Neveser</t>
+  </si>
+  <si>
+    <t>makam: Neva</t>
+  </si>
+  <si>
+    <t>makam: Nihavend</t>
+  </si>
+  <si>
+    <t>makam: Pencgah</t>
+  </si>
+  <si>
+    <t>makam: Rast</t>
+  </si>
+  <si>
+    <t>makam: Saba</t>
+  </si>
+  <si>
+    <t>makam: Segah</t>
+  </si>
+  <si>
+    <t>makam: Sehnaz</t>
+  </si>
+  <si>
+    <t>makam: Sultaniyegah</t>
+  </si>
+  <si>
+    <t>makam: Suzidil</t>
+  </si>
+  <si>
+    <t>makam: Suzinak</t>
+  </si>
+  <si>
+    <t>makam: Ussak</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1460,7 @@
   <dimension ref="A1:L256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32:K34"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1394,42 +1475,45 @@
         <v>283</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F1" t="s">
         <v>280</v>
       </c>
+      <c r="G1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>475.11926</v>
+        <v>183.40323000000001</v>
       </c>
       <c r="D2">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0195692999999999</v>
+        <v>1.0022035</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>279</v>
@@ -1446,25 +1530,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>204.32310000000001</v>
+        <v>237.76428000000001</v>
       </c>
       <c r="D3">
-        <v>201</v>
+        <v>237.8</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0165329000000001</v>
+        <v>0.99984980000000001</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>30</v>
@@ -1481,25 +1565,25 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>396.59339999999997</v>
+        <v>182.35883999999999</v>
       </c>
       <c r="D4">
-        <v>391.4</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0132688000000001</v>
+        <v>0.99649639999999995</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>79</v>
@@ -1516,25 +1600,25 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>138.88466</v>
+        <v>137.22809000000001</v>
       </c>
       <c r="D5">
-        <v>275</v>
+        <v>276.8</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0100701999999999</v>
+        <v>0.99153243999999996</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>213</v>
@@ -1549,34 +1633,34 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>425.07217000000003</v>
+        <v>141.67779999999999</v>
       </c>
       <c r="D6">
-        <v>210.6</v>
+        <v>284.10000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0091931999999999</v>
+        <v>0.99737969999999998</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>179</v>
       </c>
       <c r="J6" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6" s="3">
         <v>21</v>
@@ -1584,25 +1668,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>227.02722</v>
+        <v>355.91399999999999</v>
       </c>
       <c r="D7">
-        <v>225</v>
+        <v>355.9</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.0090098000000001</v>
+        <v>1.0000393000000001</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>258</v>
@@ -1619,25 +1703,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>109.92928999999999</v>
+        <v>173.77690000000001</v>
       </c>
       <c r="D8">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>295</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.0085256</v>
+        <v>0.99301090000000003</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>64</v>
@@ -1654,25 +1738,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>223.38495</v>
+        <v>377.02839999999998</v>
       </c>
       <c r="D9">
-        <v>443</v>
+        <v>190</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.0085099</v>
+        <v>0.99218004999999998</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>163</v>
@@ -1689,25 +1773,25 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>223.38495</v>
+        <v>254.08623</v>
       </c>
       <c r="D10">
-        <v>443</v>
+        <v>253</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.0085099</v>
+        <v>1.0042933999999999</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>201</v>
@@ -1724,25 +1808,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>294.45319999999998</v>
+        <v>146.83718999999999</v>
       </c>
       <c r="D11">
-        <v>292</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>296</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.0084013000000001</v>
+        <v>0.99685800000000002</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>152</v>
@@ -1759,25 +1843,25 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>224.77940000000001</v>
+        <v>248.578</v>
       </c>
       <c r="D12">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.0079794</v>
+        <v>0.99830525999999997</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>248</v>
@@ -1794,25 +1878,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>214.62637000000001</v>
+        <v>224.77940000000001</v>
       </c>
       <c r="D13">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="E13" t="s">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.0076356</v>
+        <v>1.0079794</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>100</v>
@@ -1829,25 +1913,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>199.34329</v>
+        <v>220.69165000000001</v>
       </c>
       <c r="D14">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.0067843000000001</v>
+        <v>1.0031439</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>10</v>
@@ -1864,25 +1948,25 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>221.48676</v>
+        <v>123.46545399999999</v>
       </c>
       <c r="D15">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>299</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.006758</v>
+        <v>0.99568915000000002</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>111</v>
@@ -1899,25 +1983,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
       <c r="C16">
-        <v>220.39599999999999</v>
+        <v>227.02722</v>
       </c>
       <c r="D16">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>299</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.0063743999999999</v>
+        <v>1.0090098000000001</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>137</v>
@@ -1934,25 +2018,25 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>163.49171000000001</v>
+        <v>295.25335999999999</v>
       </c>
       <c r="D17">
-        <v>325</v>
+        <v>590</v>
       </c>
       <c r="E17" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0061028000000001</v>
+        <v>1.0008588</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>130</v>
@@ -1967,25 +2051,25 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="C18">
-        <v>124.32964</v>
+        <v>225.56717</v>
       </c>
       <c r="D18">
-        <v>123.6</v>
+        <v>227</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.0059032000000001</v>
+        <v>0.99368800000000002</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>52</v>
@@ -2002,25 +2086,25 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="C19">
-        <v>109.60509</v>
+        <v>150.16784999999999</v>
       </c>
       <c r="D19">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.0055512</v>
+        <v>1.0011190000000001</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>19</v>
@@ -2037,25 +2121,25 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
       </c>
       <c r="C20">
-        <v>331.82990000000001</v>
+        <v>291.95742999999999</v>
       </c>
       <c r="D20">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>299</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.0055451</v>
+        <v>0.99644169999999999</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>1</v>
@@ -2072,25 +2156,25 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>221.10327000000001</v>
+        <v>223.38495</v>
       </c>
       <c r="D21">
-        <v>220</v>
+        <v>443</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>299</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.0050148999999999</v>
+        <v>1.0085099</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>23</v>
@@ -2105,25 +2189,25 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>292.8338</v>
+        <v>147.87785</v>
       </c>
       <c r="D22">
-        <v>291.5</v>
+        <v>295</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.0045755999999999</v>
+        <v>1.0025617</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>177</v>
@@ -2138,25 +2222,25 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>247.11931999999999</v>
+        <v>220.39599999999999</v>
       </c>
       <c r="D23">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.0045500999999999</v>
+        <v>1.0063743999999999</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>246</v>
@@ -2171,25 +2255,25 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>220.97559999999999</v>
+        <v>331.82990000000001</v>
       </c>
       <c r="D24">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.0044346</v>
+        <v>1.0055451</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>234</v>
@@ -2204,25 +2288,25 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>220.97559999999999</v>
+        <v>186.67823999999999</v>
       </c>
       <c r="D25">
-        <v>220</v>
+        <v>187.4</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.0044346</v>
+        <v>0.99614860000000005</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>25</v>
@@ -2237,25 +2321,25 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>282.23061999999999</v>
+        <v>425.11860000000001</v>
       </c>
       <c r="D26">
-        <v>281</v>
+        <v>425</v>
       </c>
       <c r="E26" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.0043793999999999</v>
+        <v>1.0002791</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>148</v>
@@ -2270,25 +2354,25 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>250.08339000000001</v>
+        <v>161.81297000000001</v>
       </c>
       <c r="D27">
-        <v>249</v>
+        <v>161.5</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.004351</v>
+        <v>1.0019378999999999</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>150</v>
@@ -2303,25 +2387,25 @@
     </row>
     <row r="28" spans="1:12" ht="16" thickBot="1">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>453.95546999999999</v>
+        <v>223.38495</v>
       </c>
       <c r="D28">
-        <v>226</v>
+        <v>443</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.0043261999999999</v>
+        <v>1.0085099</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>232</v>
@@ -2336,34 +2420,34 @@
     </row>
     <row r="29" spans="1:12" ht="16" thickTop="1">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C29">
-        <v>254.08623</v>
+        <v>188.59439</v>
       </c>
       <c r="D29">
-        <v>253</v>
+        <v>381.4</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>299</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.0042933999999999</v>
+        <v>0.98895854000000005</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>278</v>
       </c>
       <c r="J29" s="6">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K29" s="6">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L29" s="6">
         <v>255</v>
@@ -2371,148 +2455,148 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <v>123.49639999999999</v>
+        <v>122.567184</v>
       </c>
       <c r="D30">
         <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.0040357</v>
+        <v>0.99648119999999996</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J30" s="9">
         <f>J29/L29</f>
-        <v>0.69803921568627447</v>
+        <v>0.70196078431372544</v>
       </c>
       <c r="K30">
         <f>K29/L29</f>
-        <v>0.30196078431372547</v>
+        <v>0.29803921568627451</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="C31">
-        <v>374.48532</v>
+        <v>292.91359999999997</v>
       </c>
       <c r="D31">
-        <v>373</v>
+        <v>293</v>
       </c>
       <c r="E31" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.0039821</v>
+        <v>0.99970513999999999</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
         <v>52</v>
       </c>
       <c r="C32">
-        <v>196.62888000000001</v>
+        <v>240.46666999999999</v>
       </c>
       <c r="D32">
-        <v>195.9</v>
+        <v>240</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>300</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.0037206000000001</v>
+        <v>1.0019444</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="C33">
-        <v>278.02981999999997</v>
+        <v>129.05545000000001</v>
       </c>
       <c r="D33">
-        <v>277</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.0037178</v>
+        <v>1.0004299000000001</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J33">
-        <f>MIN(G2:G179)</f>
+        <f>MIN(G2:G180)</f>
         <v>0.98232054999999996</v>
       </c>
       <c r="K33">
-        <f>MAX(G2:G179)</f>
+        <f>MAX(G2:G180)</f>
         <v>1.0195692999999999</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="C34">
-        <v>292.36829999999998</v>
+        <v>196.62888000000001</v>
       </c>
       <c r="D34">
-        <v>291.3</v>
+        <v>195.9</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>300</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.0036674000000001</v>
+        <v>1.0037206000000001</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J34">
         <f>LOG(J33,2)*53</f>
@@ -2525,3374 +2609,3377 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="C35">
-        <v>269.98534999999998</v>
+        <v>248.78666999999999</v>
       </c>
       <c r="D35">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="E35" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.0036631</v>
+        <v>0.99914323999999999</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="C36">
-        <v>376.31830000000002</v>
+        <v>123.083885</v>
       </c>
       <c r="D36">
-        <v>375</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.0035155</v>
+        <v>1.0006820000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>260</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>258</v>
+        <v>64</v>
       </c>
       <c r="C37">
-        <v>123.39146</v>
+        <v>142.40692000000001</v>
       </c>
       <c r="D37">
-        <v>123</v>
+        <v>286.5</v>
       </c>
       <c r="E37" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.0031825000000001</v>
+        <v>0.99411464000000005</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C38">
-        <v>220.69165000000001</v>
+        <v>147.33573999999999</v>
       </c>
       <c r="D38">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>301</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
       </c>
       <c r="G38">
-        <v>1.0031439</v>
+        <v>1.0022838999999999</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="C39">
-        <v>166.31142</v>
+        <v>218.36848000000001</v>
       </c>
       <c r="D39">
-        <v>165.8</v>
+        <v>219</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>301</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
       </c>
       <c r="G39">
-        <v>1.0030844999999999</v>
+        <v>0.99711640000000001</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C40">
-        <v>81.234279999999998</v>
+        <v>229.72022999999999</v>
       </c>
       <c r="D40">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
       </c>
       <c r="G40">
-        <v>1.0028923999999999</v>
+        <v>0.99445987000000002</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C41">
-        <v>137.38074</v>
+        <v>293.12121999999999</v>
       </c>
       <c r="D41">
-        <v>137</v>
+        <v>294.8</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
       </c>
       <c r="G41">
-        <v>1.0027790999999999</v>
+        <v>0.99430540000000001</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C42">
-        <v>137.38074</v>
+        <v>495.81412</v>
       </c>
       <c r="D42">
-        <v>137</v>
+        <v>497.1</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
       </c>
       <c r="G42">
-        <v>1.0027790999999999</v>
+        <v>0.9974132</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C43">
-        <v>147.87785</v>
+        <v>110.61794999999999</v>
       </c>
       <c r="D43">
-        <v>295</v>
+        <v>110.6</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>301</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
       </c>
       <c r="G43">
-        <v>1.0025617</v>
+        <v>1.0001624</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
         <v>64</v>
       </c>
       <c r="C44">
-        <v>147.33573999999999</v>
+        <v>140.61637999999999</v>
       </c>
       <c r="D44">
-        <v>147</v>
+        <v>280.60000000000002</v>
       </c>
       <c r="E44" t="s">
-        <v>64</v>
+        <v>301</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
       </c>
       <c r="G44">
-        <v>1.0022838999999999</v>
+        <v>1.0022549999999999</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
         <v>64</v>
       </c>
       <c r="C45">
-        <v>140.61637999999999</v>
+        <v>437.72327000000001</v>
       </c>
       <c r="D45">
-        <v>280.60000000000002</v>
+        <v>438.3</v>
       </c>
       <c r="E45" t="s">
-        <v>64</v>
+        <v>301</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
       </c>
       <c r="G45">
-        <v>1.0022549999999999</v>
+        <v>0.99868416999999998</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C46">
-        <v>183.40323000000001</v>
+        <v>187.53264999999999</v>
       </c>
       <c r="D46">
-        <v>183</v>
+        <v>187.8</v>
       </c>
       <c r="E46" t="s">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
       </c>
       <c r="G46">
-        <v>1.0022035</v>
+        <v>0.99857640000000003</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="C47">
-        <v>383.80703999999997</v>
+        <v>247.78549000000001</v>
       </c>
       <c r="D47">
-        <v>383</v>
+        <v>248</v>
       </c>
       <c r="E47" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
       </c>
       <c r="G47">
-        <v>1.0021070999999999</v>
+        <v>0.99913510000000005</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="C48">
-        <v>109.21279</v>
+        <v>274.11239999999998</v>
       </c>
       <c r="D48">
-        <v>109</v>
+        <v>275</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>302</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
       </c>
       <c r="G48">
-        <v>1.0019522000000001</v>
+        <v>0.99677234999999997</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C49">
-        <v>240.46666999999999</v>
+        <v>153.59915000000001</v>
       </c>
       <c r="D49">
-        <v>240</v>
+        <v>308.39999999999998</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>302</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
       </c>
       <c r="G49">
-        <v>1.0019444</v>
+        <v>0.99610346999999999</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C50">
-        <v>161.81297000000001</v>
+        <v>81.234279999999998</v>
       </c>
       <c r="D50">
-        <v>161.5</v>
+        <v>162</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>302</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
       </c>
       <c r="G50">
-        <v>1.0019378999999999</v>
+        <v>1.0028923999999999</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="C51">
-        <v>583.52700000000004</v>
+        <v>556.8723</v>
       </c>
       <c r="D51">
-        <v>582.4</v>
+        <v>557</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>302</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
       </c>
       <c r="G51">
-        <v>1.001935</v>
+        <v>0.99977075999999998</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C52">
-        <v>220.42483999999999</v>
+        <v>178.21124</v>
       </c>
       <c r="D52">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="E52" t="s">
-        <v>100</v>
+        <v>302</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
       </c>
       <c r="G52">
-        <v>1.0019311</v>
+        <v>0.99559355000000005</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="C53">
-        <v>156.28403</v>
+        <v>137.38074</v>
       </c>
       <c r="D53">
-        <v>312</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
-        <v>213</v>
+        <v>302</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
       </c>
       <c r="G53">
-        <v>1.0018206999999999</v>
+        <v>1.0027790999999999</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="C54">
-        <v>161.26723000000001</v>
+        <v>364.79318000000001</v>
       </c>
       <c r="D54">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="E54" t="s">
-        <v>163</v>
+        <v>302</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
       </c>
       <c r="G54">
-        <v>1.0016598000000001</v>
+        <v>0.99398684999999998</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="C55">
-        <v>445.10770000000002</v>
+        <v>396.59339999999997</v>
       </c>
       <c r="D55">
-        <v>444.5</v>
+        <v>391.4</v>
       </c>
       <c r="E55" t="s">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
       </c>
       <c r="G55">
-        <v>1.0013671</v>
+        <v>1.0132688000000001</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="C56">
-        <v>65.238380000000006</v>
+        <v>205.15764999999999</v>
       </c>
       <c r="D56">
-        <v>130.30000000000001</v>
+        <v>417.7</v>
       </c>
       <c r="E56" t="s">
-        <v>130</v>
+        <v>302</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
       </c>
       <c r="G56">
-        <v>1.0013566</v>
+        <v>0.98232054999999996</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C57">
-        <v>150.16784999999999</v>
+        <v>189.69311999999999</v>
       </c>
       <c r="D57">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>302</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
       </c>
       <c r="G57">
-        <v>1.0011190000000001</v>
+        <v>0.99838483</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
         <v>79</v>
       </c>
       <c r="C58">
-        <v>243.96695</v>
+        <v>275.22903000000002</v>
       </c>
       <c r="D58">
-        <v>243.7</v>
+        <v>276.60000000000002</v>
       </c>
       <c r="E58" t="s">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
       </c>
       <c r="G58">
-        <v>1.0010954000000001</v>
+        <v>0.99504349999999997</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C59">
-        <v>223.23403999999999</v>
+        <v>243.96695</v>
       </c>
       <c r="D59">
-        <v>223</v>
+        <v>243.7</v>
       </c>
       <c r="E59" t="s">
-        <v>100</v>
+        <v>302</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
       </c>
       <c r="G59">
-        <v>1.0010494999999999</v>
+        <v>1.0010954000000001</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="C60">
-        <v>223.22919999999999</v>
+        <v>164.86588</v>
       </c>
       <c r="D60">
-        <v>223</v>
+        <v>330.3</v>
       </c>
       <c r="E60" t="s">
-        <v>137</v>
+        <v>302</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
       </c>
       <c r="G60">
-        <v>1.0010277999999999</v>
+        <v>0.99827962999999997</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C61">
-        <v>295.25335999999999</v>
+        <v>193.21090000000001</v>
       </c>
       <c r="D61">
-        <v>590</v>
+        <v>388.3</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>302</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
       </c>
       <c r="G61">
-        <v>1.0008588</v>
+        <v>0.99516309999999997</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="C62">
-        <v>198.16273000000001</v>
+        <v>137.38074</v>
       </c>
       <c r="D62">
-        <v>396</v>
+        <v>137</v>
       </c>
       <c r="E62" t="s">
-        <v>163</v>
+        <v>302</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
       </c>
       <c r="G62">
-        <v>1.0008220000000001</v>
+        <v>1.0027790999999999</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C63">
-        <v>123.083885</v>
+        <v>205.27843999999999</v>
       </c>
       <c r="D63">
-        <v>123</v>
+        <v>206.6</v>
       </c>
       <c r="E63" t="s">
-        <v>64</v>
+        <v>302</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
       </c>
       <c r="G63">
-        <v>1.0006820000000001</v>
+        <v>0.99360329999999997</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="C64">
-        <v>233.95482999999999</v>
+        <v>181.22953999999999</v>
       </c>
       <c r="D64">
-        <v>233.8</v>
+        <v>182.6</v>
       </c>
       <c r="E64" t="s">
-        <v>137</v>
+        <v>302</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
       </c>
       <c r="G64">
-        <v>1.0006622000000001</v>
+        <v>0.99249469999999995</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="B65" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="C65">
-        <v>109.05817999999999</v>
+        <v>223.23403999999999</v>
       </c>
       <c r="D65">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="E65" t="s">
-        <v>179</v>
+        <v>303</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
       </c>
       <c r="G65">
-        <v>1.0005337999999999</v>
+        <v>1.0010494999999999</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C66">
-        <v>129.05545000000001</v>
+        <v>220.5137</v>
       </c>
       <c r="D66">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="E66" t="s">
-        <v>52</v>
+        <v>303</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
       </c>
       <c r="G66">
-        <v>1.0004299000000001</v>
+        <v>0.99779960000000001</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C67">
-        <v>425.11860000000001</v>
+        <v>122.76772</v>
       </c>
       <c r="D67">
-        <v>425</v>
+        <v>123</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
       </c>
       <c r="G67">
-        <v>1.0002791</v>
+        <v>0.99811154999999996</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>255</v>
+        <v>105</v>
       </c>
       <c r="B68" t="s">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="C68">
-        <v>148.03588999999999</v>
+        <v>152.89433</v>
       </c>
       <c r="D68">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E68" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
       </c>
       <c r="G68">
-        <v>1.0002424999999999</v>
+        <v>0.99282029999999999</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="C69">
-        <v>197.03219999999999</v>
+        <v>220.42483999999999</v>
       </c>
       <c r="D69">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="E69" t="s">
-        <v>163</v>
+        <v>303</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
       </c>
       <c r="G69">
-        <v>1.0001633999999999</v>
+        <v>1.0019311</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C70">
-        <v>110.61794999999999</v>
+        <v>164.69526999999999</v>
       </c>
       <c r="D70">
-        <v>110.6</v>
+        <v>164.8</v>
       </c>
       <c r="E70" t="s">
-        <v>64</v>
+        <v>303</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
       </c>
       <c r="G70">
-        <v>1.0001624</v>
+        <v>0.99936444000000002</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="C71">
-        <v>262.91757000000001</v>
+        <v>292.8338</v>
       </c>
       <c r="D71">
-        <v>262.89999999999998</v>
+        <v>291.5</v>
       </c>
       <c r="E71" t="s">
-        <v>179</v>
+        <v>303</v>
       </c>
       <c r="F71" t="b">
         <v>1</v>
       </c>
       <c r="G71">
-        <v>1.0000669</v>
+        <v>1.0045755999999999</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="C72">
-        <v>97.504530000000003</v>
+        <v>123.1067</v>
       </c>
       <c r="D72">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="E72" t="s">
-        <v>163</v>
+        <v>304</v>
       </c>
       <c r="F72" t="b">
         <v>1</v>
       </c>
       <c r="G72">
-        <v>1.0000465000000001</v>
+        <v>0.99681540000000002</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="C73">
-        <v>355.91399999999999</v>
+        <v>392.04674999999997</v>
       </c>
       <c r="D73">
-        <v>355.9</v>
+        <v>393</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>304</v>
       </c>
       <c r="F73" t="b">
         <v>1</v>
       </c>
       <c r="G73">
-        <v>1.0000393000000001</v>
+        <v>0.99757445</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="C74">
-        <v>164.00389000000001</v>
+        <v>220.92026000000001</v>
       </c>
       <c r="D74">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="E74" t="s">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="F74" t="b">
         <v>1</v>
       </c>
       <c r="G74">
-        <v>1.0000237000000001</v>
+        <v>0.99513629999999997</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="C75">
-        <v>596.71090000000004</v>
+        <v>293.49520000000001</v>
       </c>
       <c r="D75">
-        <v>596.70000000000005</v>
+        <v>588</v>
       </c>
       <c r="E75" t="s">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
       </c>
       <c r="G75">
-        <v>1.0000182</v>
+        <v>0.99828300000000003</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>262</v>
+        <v>125</v>
       </c>
       <c r="B76" t="s">
-        <v>258</v>
+        <v>111</v>
       </c>
       <c r="C76">
-        <v>140.98158000000001</v>
+        <v>294.45319999999998</v>
       </c>
       <c r="D76">
-        <v>141</v>
+        <v>292</v>
       </c>
       <c r="E76" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>0.99986940000000002</v>
+        <v>1.0084013000000001</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="C77">
-        <v>237.76428000000001</v>
+        <v>293.72559999999999</v>
       </c>
       <c r="D77">
-        <v>237.8</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>304</v>
       </c>
       <c r="F77" t="b">
         <v>1</v>
       </c>
       <c r="G77">
-        <v>0.99984980000000001</v>
+        <v>0.99703187000000004</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="C78">
-        <v>556.8723</v>
+        <v>219.87533999999999</v>
       </c>
       <c r="D78">
-        <v>557</v>
+        <v>221</v>
       </c>
       <c r="E78" t="s">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="F78" t="b">
         <v>1</v>
       </c>
       <c r="G78">
-        <v>0.99977075999999998</v>
+        <v>0.99491099999999999</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="C79">
-        <v>292.91359999999997</v>
+        <v>125.723564</v>
       </c>
       <c r="D79">
-        <v>293</v>
+        <v>125.9</v>
       </c>
       <c r="E79" t="s">
-        <v>52</v>
+        <v>305</v>
       </c>
       <c r="F79" t="b">
         <v>1</v>
       </c>
       <c r="G79">
-        <v>0.99970513999999999</v>
+        <v>0.9985986</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="B80" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="C80">
-        <v>222.93260000000001</v>
+        <v>130.28635</v>
       </c>
       <c r="D80">
-        <v>223</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="E80" t="s">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="F80" t="b">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>0.99969774</v>
+        <v>0.99683509999999997</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="B81" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="C81">
-        <v>97.067710000000005</v>
+        <v>244.37415999999999</v>
       </c>
       <c r="D81">
-        <v>97.1</v>
+        <v>246.8</v>
       </c>
       <c r="E81" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="F81" t="b">
         <v>1</v>
       </c>
       <c r="G81">
-        <v>0.99966747</v>
+        <v>0.99017084</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="C82">
-        <v>218.88552999999999</v>
+        <v>147.26670999999999</v>
       </c>
       <c r="D82">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="E82" t="s">
-        <v>177</v>
+        <v>305</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
       </c>
       <c r="G82">
-        <v>0.99947730000000001</v>
+        <v>0.99504530000000002</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>261</v>
+        <v>135</v>
       </c>
       <c r="B83" t="s">
-        <v>258</v>
+        <v>130</v>
       </c>
       <c r="C83">
-        <v>427.75833</v>
+        <v>65.238380000000006</v>
       </c>
       <c r="D83">
-        <v>428</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="E83" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="F83" t="b">
         <v>1</v>
       </c>
       <c r="G83">
-        <v>0.99943537000000005</v>
+        <v>1.0013566</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>273</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>258</v>
+        <v>137</v>
       </c>
       <c r="C84">
-        <v>439.52078</v>
+        <v>223.22919999999999</v>
       </c>
       <c r="D84">
-        <v>219.9</v>
+        <v>223</v>
       </c>
       <c r="E84" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="F84" t="b">
         <v>1</v>
       </c>
       <c r="G84">
-        <v>0.99936515000000004</v>
+        <v>1.0010277999999999</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B85" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C85">
-        <v>164.69526999999999</v>
+        <v>109.21279</v>
       </c>
       <c r="D85">
-        <v>164.8</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
-        <v>100</v>
+        <v>306</v>
       </c>
       <c r="F85" t="b">
         <v>1</v>
       </c>
       <c r="G85">
-        <v>0.99936444000000002</v>
+        <v>1.0019522000000001</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="B86" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="C86">
-        <v>248.78666999999999</v>
+        <v>250.08339000000001</v>
       </c>
       <c r="D86">
         <v>249</v>
       </c>
       <c r="E86" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="F86" t="b">
         <v>1</v>
       </c>
       <c r="G86">
-        <v>0.99914323999999999</v>
+        <v>1.004351</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="C87">
-        <v>247.78549000000001</v>
+        <v>233.95482999999999</v>
       </c>
       <c r="D87">
-        <v>248</v>
+        <v>233.8</v>
       </c>
       <c r="E87" t="s">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
       </c>
       <c r="G87">
-        <v>0.99913510000000005</v>
+        <v>1.0006622000000001</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C88">
-        <v>274.60577000000001</v>
+        <v>124.32964</v>
       </c>
       <c r="D88">
-        <v>274.89999999999998</v>
+        <v>123.6</v>
       </c>
       <c r="E88" t="s">
-        <v>152</v>
+        <v>306</v>
       </c>
       <c r="F88" t="b">
         <v>1</v>
       </c>
       <c r="G88">
-        <v>0.99892974000000001</v>
+        <v>1.0059032000000001</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="C89">
-        <v>329.6311</v>
+        <v>123.00476</v>
       </c>
       <c r="D89">
-        <v>330</v>
+        <v>123.8</v>
       </c>
       <c r="E89" t="s">
-        <v>201</v>
+        <v>306</v>
       </c>
       <c r="F89" t="b">
         <v>1</v>
       </c>
       <c r="G89">
-        <v>0.99888209999999999</v>
+        <v>0.99357640000000003</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C90">
-        <v>178.79102</v>
+        <v>278.12677000000002</v>
       </c>
       <c r="D90">
-        <v>179</v>
+        <v>278.5</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>309</v>
       </c>
       <c r="F90" t="b">
         <v>1</v>
       </c>
       <c r="G90">
-        <v>0.99883246000000003</v>
+        <v>0.99865985000000002</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C91">
-        <v>437.72327000000001</v>
+        <v>328.84885000000003</v>
       </c>
       <c r="D91">
-        <v>438.3</v>
+        <v>165</v>
       </c>
       <c r="E91" t="s">
-        <v>64</v>
+        <v>309</v>
       </c>
       <c r="F91" t="b">
         <v>1</v>
       </c>
       <c r="G91">
-        <v>0.99868416999999998</v>
+        <v>0.99651164000000003</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B92" t="s">
         <v>152</v>
       </c>
       <c r="C92">
-        <v>278.12677000000002</v>
+        <v>239.29283000000001</v>
       </c>
       <c r="D92">
-        <v>278.5</v>
+        <v>240.1</v>
       </c>
       <c r="E92" t="s">
-        <v>152</v>
+        <v>309</v>
       </c>
       <c r="F92" t="b">
         <v>1</v>
       </c>
       <c r="G92">
-        <v>0.99865985000000002</v>
+        <v>0.99663820000000003</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="B93" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C93">
-        <v>125.723564</v>
+        <v>274.60577000000001</v>
       </c>
       <c r="D93">
-        <v>125.9</v>
+        <v>274.89999999999998</v>
       </c>
       <c r="E93" t="s">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="F93" t="b">
         <v>1</v>
       </c>
       <c r="G93">
-        <v>0.9985986</v>
+        <v>0.99892974000000001</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="B94" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C94">
-        <v>187.53264999999999</v>
+        <v>166.31142</v>
       </c>
       <c r="D94">
-        <v>187.8</v>
+        <v>165.8</v>
       </c>
       <c r="E94" t="s">
-        <v>64</v>
+        <v>309</v>
       </c>
       <c r="F94" t="b">
         <v>1</v>
       </c>
       <c r="G94">
-        <v>0.99857640000000003</v>
+        <v>1.0030844999999999</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>276</v>
+        <v>159</v>
       </c>
       <c r="B95" t="s">
-        <v>258</v>
+        <v>152</v>
       </c>
       <c r="C95">
-        <v>188.70337000000001</v>
+        <v>596.71090000000004</v>
       </c>
       <c r="D95">
-        <v>189</v>
+        <v>596.70000000000005</v>
       </c>
       <c r="E95" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="F95" t="b">
         <v>1</v>
       </c>
       <c r="G95">
-        <v>0.99843055000000003</v>
+        <v>1.0000182</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="C96">
-        <v>189.69311999999999</v>
+        <v>292.36829999999998</v>
       </c>
       <c r="D96">
-        <v>190</v>
+        <v>291.3</v>
       </c>
       <c r="E96" t="s">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
       </c>
       <c r="G96">
-        <v>0.99838483</v>
+        <v>1.0036674000000001</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="C97">
-        <v>248.578</v>
+        <v>163.58260000000001</v>
       </c>
       <c r="D97">
-        <v>249</v>
+        <v>163.9</v>
       </c>
       <c r="E97" t="s">
-        <v>23</v>
+        <v>309</v>
       </c>
       <c r="F97" t="b">
         <v>1</v>
       </c>
       <c r="G97">
-        <v>0.99830525999999997</v>
+        <v>0.99806344999999996</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="B98" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="C98">
-        <v>293.49520000000001</v>
+        <v>198.16273000000001</v>
       </c>
       <c r="D98">
-        <v>588</v>
+        <v>396</v>
       </c>
       <c r="E98" t="s">
-        <v>111</v>
+        <v>310</v>
       </c>
       <c r="F98" t="b">
         <v>1</v>
       </c>
       <c r="G98">
-        <v>0.99828300000000003</v>
+        <v>1.0008220000000001</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="C99">
-        <v>164.86588</v>
+        <v>123.49639999999999</v>
       </c>
       <c r="D99">
-        <v>330.3</v>
+        <v>123</v>
       </c>
       <c r="E99" t="s">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
       </c>
       <c r="G99">
-        <v>0.99827962999999997</v>
+        <v>1.0040357</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B100" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C100">
-        <v>292.47656000000001</v>
+        <v>453.95546999999999</v>
       </c>
       <c r="D100">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="E100" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c r="F100" t="b">
         <v>1</v>
       </c>
       <c r="G100">
-        <v>0.99821349999999998</v>
+        <v>1.0043261999999999</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B101" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C101">
-        <v>391.49594000000002</v>
+        <v>220.97559999999999</v>
       </c>
       <c r="D101">
-        <v>196.1</v>
+        <v>220</v>
       </c>
       <c r="E101" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c r="F101" t="b">
         <v>1</v>
       </c>
       <c r="G101">
-        <v>0.9982048</v>
+        <v>1.0044346</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="C102">
-        <v>122.76772</v>
+        <v>161.26723000000001</v>
       </c>
       <c r="D102">
-        <v>123</v>
+        <v>322</v>
       </c>
       <c r="E102" t="s">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
       </c>
       <c r="G102">
-        <v>0.99811154999999996</v>
+        <v>1.0016598000000001</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="C103">
-        <v>343.34093999999999</v>
+        <v>97.504530000000003</v>
       </c>
       <c r="D103">
-        <v>344</v>
+        <v>195</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>310</v>
       </c>
       <c r="F103" t="b">
         <v>1</v>
       </c>
       <c r="G103">
-        <v>0.99808410000000003</v>
+        <v>1.0000465000000001</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B104" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C104">
-        <v>163.58260000000001</v>
+        <v>121.58665000000001</v>
       </c>
       <c r="D104">
-        <v>163.9</v>
+        <v>122</v>
       </c>
       <c r="E104" t="s">
-        <v>152</v>
+        <v>310</v>
       </c>
       <c r="F104" t="b">
         <v>1</v>
       </c>
       <c r="G104">
-        <v>0.99806344999999996</v>
+        <v>0.99661182999999998</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="C105">
-        <v>220.5137</v>
+        <v>197.03219999999999</v>
       </c>
       <c r="D105">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="E105" t="s">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="F105" t="b">
         <v>1</v>
       </c>
       <c r="G105">
-        <v>0.99779960000000001</v>
+        <v>1.0001633999999999</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>269</v>
+        <v>174</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
+        <v>163</v>
       </c>
       <c r="C106">
-        <v>186.27788000000001</v>
+        <v>290.89030000000002</v>
       </c>
       <c r="D106">
-        <v>186.7</v>
+        <v>292</v>
       </c>
       <c r="E106" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="F106" t="b">
         <v>1</v>
       </c>
       <c r="G106">
-        <v>0.99773909999999999</v>
+        <v>0.99619959999999996</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="C107">
-        <v>488.08819999999997</v>
+        <v>220.97559999999999</v>
       </c>
       <c r="D107">
-        <v>489.2</v>
+        <v>220</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F107" t="b">
         <v>1</v>
       </c>
       <c r="G107">
-        <v>0.99772729999999998</v>
+        <v>1.0044346</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="C108">
-        <v>392.04674999999997</v>
+        <v>145.23132000000001</v>
       </c>
       <c r="D108">
-        <v>393</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="E108" t="s">
-        <v>111</v>
+        <v>310</v>
       </c>
       <c r="F108" t="b">
         <v>1</v>
       </c>
       <c r="G108">
-        <v>0.99757445</v>
+        <v>0.99609959999999997</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>271</v>
+        <v>176</v>
       </c>
       <c r="B109" t="s">
-        <v>258</v>
+        <v>177</v>
       </c>
       <c r="C109">
-        <v>293.67437999999999</v>
+        <v>218.88552999999999</v>
       </c>
       <c r="D109">
-        <v>294.39999999999998</v>
+        <v>219</v>
       </c>
       <c r="E109" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="F109" t="b">
         <v>1</v>
       </c>
       <c r="G109">
-        <v>0.99753530000000001</v>
+        <v>0.99947730000000001</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B110" t="s">
         <v>179</v>
       </c>
       <c r="C110">
-        <v>109.42367</v>
+        <v>199.34329</v>
       </c>
       <c r="D110">
-        <v>219.4</v>
+        <v>198</v>
       </c>
       <c r="E110" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="F110" t="b">
         <v>1</v>
       </c>
       <c r="G110">
-        <v>0.99748104999999998</v>
+        <v>1.0067843000000001</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B111" t="s">
         <v>179</v>
       </c>
       <c r="C111">
-        <v>129.66873000000001</v>
+        <v>109.92928999999999</v>
       </c>
       <c r="D111">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E111" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="F111" t="b">
         <v>1</v>
       </c>
       <c r="G111">
-        <v>0.9974518</v>
+        <v>1.0085256</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="B112" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="C112">
-        <v>495.81412</v>
+        <v>109.05817999999999</v>
       </c>
       <c r="D112">
-        <v>497.1</v>
+        <v>109</v>
       </c>
       <c r="E112" t="s">
-        <v>64</v>
+        <v>312</v>
       </c>
       <c r="F112" t="b">
         <v>1</v>
       </c>
       <c r="G112">
-        <v>0.9974132</v>
+        <v>1.0005337999999999</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="C113">
-        <v>141.67779999999999</v>
+        <v>214.62637000000001</v>
       </c>
       <c r="D113">
-        <v>284.10000000000002</v>
+        <v>213</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>312</v>
       </c>
       <c r="F113" t="b">
         <v>1</v>
       </c>
       <c r="G113">
-        <v>0.99737969999999998</v>
+        <v>1.0076356</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B114" t="s">
         <v>179</v>
       </c>
       <c r="C114">
-        <v>129.72526999999999</v>
+        <v>163.40619000000001</v>
       </c>
       <c r="D114">
-        <v>260.2</v>
+        <v>329</v>
       </c>
       <c r="E114" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="F114" t="b">
         <v>1</v>
       </c>
       <c r="G114">
-        <v>0.99711959999999999</v>
+        <v>0.99335070000000003</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="B115" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="C115">
-        <v>218.36848000000001</v>
+        <v>178.79102</v>
       </c>
       <c r="D115">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="E115" t="s">
-        <v>64</v>
+        <v>312</v>
       </c>
       <c r="F115" t="b">
         <v>1</v>
       </c>
       <c r="G115">
-        <v>0.99711640000000001</v>
+        <v>0.99883246000000003</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="B116" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="C116">
-        <v>293.72559999999999</v>
+        <v>290.94733000000002</v>
       </c>
       <c r="D116">
-        <v>147.30000000000001</v>
+        <v>292</v>
       </c>
       <c r="E116" t="s">
-        <v>111</v>
+        <v>312</v>
       </c>
       <c r="F116" t="b">
         <v>1</v>
       </c>
       <c r="G116">
-        <v>0.99703187000000004</v>
+        <v>0.99639493000000001</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="B117" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="C117">
-        <v>247.22174000000001</v>
+        <v>220.31197</v>
       </c>
       <c r="D117">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="E117" t="s">
-        <v>213</v>
+        <v>312</v>
       </c>
       <c r="F117" t="b">
         <v>1</v>
       </c>
       <c r="G117">
-        <v>0.99686189999999997</v>
+        <v>0.99239624000000004</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="B118" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="C118">
-        <v>146.83718999999999</v>
+        <v>129.66873000000001</v>
       </c>
       <c r="D118">
-        <v>147.30000000000001</v>
+        <v>130</v>
       </c>
       <c r="E118" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="F118" t="b">
         <v>1</v>
       </c>
       <c r="G118">
-        <v>0.99685800000000002</v>
+        <v>0.9974518</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="B119" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="C119">
-        <v>130.28635</v>
+        <v>475.11926</v>
       </c>
       <c r="D119">
-        <v>130.69999999999999</v>
+        <v>233</v>
       </c>
       <c r="E119" t="s">
-        <v>130</v>
+        <v>312</v>
       </c>
       <c r="F119" t="b">
         <v>1</v>
       </c>
       <c r="G119">
-        <v>0.99683509999999997</v>
+        <v>1.0195692999999999</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="B120" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="C120">
-        <v>123.1067</v>
+        <v>292.47656000000001</v>
       </c>
       <c r="D120">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="E120" t="s">
-        <v>111</v>
+        <v>312</v>
       </c>
       <c r="F120" t="b">
         <v>1</v>
       </c>
       <c r="G120">
-        <v>0.99681540000000002</v>
+        <v>0.99821349999999998</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="B121" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="C121">
-        <v>274.11239999999998</v>
+        <v>197.16749999999999</v>
       </c>
       <c r="D121">
-        <v>275</v>
+        <v>198.4</v>
       </c>
       <c r="E121" t="s">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="F121" t="b">
         <v>1</v>
       </c>
       <c r="G121">
-        <v>0.99677234999999997</v>
+        <v>0.9937878</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="B122" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="C122">
-        <v>239.29283000000001</v>
+        <v>445.10770000000002</v>
       </c>
       <c r="D122">
-        <v>240.1</v>
+        <v>444.5</v>
       </c>
       <c r="E122" t="s">
-        <v>152</v>
+        <v>312</v>
       </c>
       <c r="F122" t="b">
         <v>1</v>
       </c>
       <c r="G122">
-        <v>0.99663820000000003</v>
+        <v>1.0013671</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="B123" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C123">
-        <v>121.58665000000001</v>
+        <v>262.91757000000001</v>
       </c>
       <c r="D123">
-        <v>122</v>
+        <v>262.89999999999998</v>
       </c>
       <c r="E123" t="s">
-        <v>163</v>
+        <v>312</v>
       </c>
       <c r="F123" t="b">
         <v>1</v>
       </c>
       <c r="G123">
-        <v>0.99661182999999998</v>
+        <v>1.0000669</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="B124" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="C124">
-        <v>328.84885000000003</v>
+        <v>391.49594000000002</v>
       </c>
       <c r="D124">
-        <v>165</v>
+        <v>196.1</v>
       </c>
       <c r="E124" t="s">
-        <v>152</v>
+        <v>312</v>
       </c>
       <c r="F124" t="b">
         <v>1</v>
       </c>
       <c r="G124">
-        <v>0.99651164000000003</v>
+        <v>0.9982048</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="C125">
-        <v>182.35883999999999</v>
+        <v>74.829049999999995</v>
       </c>
       <c r="D125">
-        <v>183</v>
+        <v>301</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>312</v>
       </c>
       <c r="F125" t="b">
         <v>1</v>
       </c>
       <c r="G125">
-        <v>0.99649639999999995</v>
+        <v>0.99440600000000001</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="B126" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="C126">
-        <v>122.567184</v>
+        <v>109.42367</v>
       </c>
       <c r="D126">
-        <v>123</v>
+        <v>219.4</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>312</v>
       </c>
       <c r="F126" t="b">
         <v>1</v>
       </c>
       <c r="G126">
-        <v>0.99648119999999996</v>
+        <v>0.99748104999999998</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="B127" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="C127">
-        <v>291.95742999999999</v>
+        <v>129.72526999999999</v>
       </c>
       <c r="D127">
-        <v>293</v>
+        <v>260.2</v>
       </c>
       <c r="E127" t="s">
-        <v>30</v>
+        <v>312</v>
       </c>
       <c r="F127" t="b">
         <v>1</v>
       </c>
       <c r="G127">
-        <v>0.99644169999999999</v>
+        <v>0.99711959999999999</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="B128" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="C128">
-        <v>290.94733000000002</v>
+        <v>222.93260000000001</v>
       </c>
       <c r="D128">
-        <v>292</v>
+        <v>223</v>
       </c>
       <c r="E128" t="s">
-        <v>179</v>
+        <v>313</v>
       </c>
       <c r="F128" t="b">
         <v>1</v>
       </c>
       <c r="G128">
-        <v>0.99639493000000001</v>
+        <v>0.99969774</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>275</v>
+        <v>202</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="C129">
-        <v>329.8</v>
+        <v>329.6311</v>
       </c>
       <c r="D129">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E129" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="F129" t="b">
         <v>1</v>
       </c>
       <c r="G129">
-        <v>0.9963746</v>
+        <v>0.99888209999999999</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="B130" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="C130">
-        <v>290.89030000000002</v>
+        <v>221.10327000000001</v>
       </c>
       <c r="D130">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="E130" t="s">
-        <v>163</v>
+        <v>313</v>
       </c>
       <c r="F130" t="b">
         <v>1</v>
       </c>
       <c r="G130">
-        <v>0.99619959999999996</v>
+        <v>1.0050148999999999</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="C131">
-        <v>186.67823999999999</v>
+        <v>221.48676</v>
       </c>
       <c r="D131">
-        <v>187.4</v>
+        <v>220</v>
       </c>
       <c r="E131" t="s">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="F131" t="b">
         <v>1</v>
       </c>
       <c r="G131">
-        <v>0.99614860000000005</v>
+        <v>1.006758</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="B132" t="s">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="C132">
-        <v>153.59915000000001</v>
+        <v>343.34093999999999</v>
       </c>
       <c r="D132">
-        <v>308.39999999999998</v>
+        <v>344</v>
       </c>
       <c r="E132" t="s">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="F132" t="b">
         <v>1</v>
       </c>
       <c r="G132">
-        <v>0.99610346999999999</v>
+        <v>0.99808410000000003</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="B133" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="C133">
-        <v>145.23132000000001</v>
+        <v>220.12227999999999</v>
       </c>
       <c r="D133">
-        <v>145.80000000000001</v>
+        <v>221.3</v>
       </c>
       <c r="E133" t="s">
-        <v>163</v>
+        <v>313</v>
       </c>
       <c r="F133" t="b">
         <v>1</v>
       </c>
       <c r="G133">
-        <v>0.99609959999999997</v>
+        <v>0.99467819999999996</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>274</v>
+        <v>209</v>
       </c>
       <c r="B134" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="C134">
-        <v>294.73250000000002</v>
+        <v>425.07217000000003</v>
       </c>
       <c r="D134">
-        <v>295.89999999999998</v>
+        <v>210.6</v>
       </c>
       <c r="E134" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="F134" t="b">
         <v>1</v>
       </c>
       <c r="G134">
-        <v>0.99605449999999995</v>
+        <v>1.0091931999999999</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="C135">
-        <v>121.51643</v>
+        <v>250.80939000000001</v>
       </c>
       <c r="D135">
-        <v>122</v>
+        <v>255</v>
       </c>
       <c r="E135" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
       </c>
       <c r="G135">
-        <v>0.99603635000000001</v>
+        <v>0.98356619999999995</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B136" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C136">
-        <v>365.53739999999999</v>
+        <v>583.52700000000004</v>
       </c>
       <c r="D136">
-        <v>367</v>
+        <v>582.4</v>
       </c>
       <c r="E136" t="s">
-        <v>213</v>
+        <v>313</v>
       </c>
       <c r="F136" t="b">
         <v>1</v>
       </c>
       <c r="G136">
-        <v>0.99601479999999998</v>
+        <v>1.001935</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="B137" t="s">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="C137">
-        <v>123.46545399999999</v>
+        <v>247.22174000000001</v>
       </c>
       <c r="D137">
         <v>248</v>
       </c>
       <c r="E137" t="s">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="F137" t="b">
         <v>1</v>
       </c>
       <c r="G137">
-        <v>0.99568915000000002</v>
+        <v>0.99686189999999997</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="B138" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="C138">
-        <v>178.21124</v>
+        <v>273.35469999999998</v>
       </c>
       <c r="D138">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="E138" t="s">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="F138" t="b">
         <v>1</v>
       </c>
       <c r="G138">
-        <v>0.99559355000000005</v>
+        <v>0.99401709999999999</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B139" t="s">
         <v>213</v>
       </c>
       <c r="C139">
-        <v>218.99525</v>
+        <v>109.60509</v>
       </c>
       <c r="D139">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="E139" t="s">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="F139" t="b">
         <v>1</v>
       </c>
       <c r="G139">
-        <v>0.99543300000000001</v>
+        <v>1.0055512</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="B140" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="C140">
-        <v>329.44076999999999</v>
+        <v>282.23061999999999</v>
       </c>
       <c r="D140">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="E140" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="F140" t="b">
         <v>1</v>
       </c>
       <c r="G140">
-        <v>0.99528930000000004</v>
+        <v>1.0043793999999999</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="B141" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="C141">
-        <v>439.87533999999999</v>
+        <v>278.02981999999997</v>
       </c>
       <c r="D141">
-        <v>442</v>
+        <v>277</v>
       </c>
       <c r="E141" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="F141" t="b">
         <v>1</v>
       </c>
       <c r="G141">
-        <v>0.99519305999999996</v>
+        <v>1.0037178</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="B142" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="C142">
-        <v>193.21090000000001</v>
+        <v>269.98534999999998</v>
       </c>
       <c r="D142">
-        <v>388.3</v>
+        <v>269</v>
       </c>
       <c r="E142" t="s">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="F142" t="b">
         <v>1</v>
       </c>
       <c r="G142">
-        <v>0.99516309999999997</v>
+        <v>1.0036631</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="B143" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="C143">
-        <v>220.92026000000001</v>
+        <v>239.65039999999999</v>
       </c>
       <c r="D143">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="E143" t="s">
-        <v>111</v>
+        <v>314</v>
       </c>
       <c r="F143" t="b">
         <v>1</v>
       </c>
       <c r="G143">
-        <v>0.99513629999999997</v>
+        <v>0.99439999999999995</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="B144" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="C144">
-        <v>147.26670999999999</v>
+        <v>376.31830000000002</v>
       </c>
       <c r="D144">
-        <v>148</v>
+        <v>375</v>
       </c>
       <c r="E144" t="s">
-        <v>130</v>
+        <v>314</v>
       </c>
       <c r="F144" t="b">
         <v>1</v>
       </c>
       <c r="G144">
-        <v>0.99504530000000002</v>
+        <v>1.0035155</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>93</v>
+        <v>221</v>
       </c>
       <c r="B145" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="C145">
-        <v>275.22903000000002</v>
+        <v>247.11931999999999</v>
       </c>
       <c r="D145">
-        <v>276.60000000000002</v>
+        <v>246</v>
       </c>
       <c r="E145" t="s">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="F145" t="b">
         <v>1</v>
       </c>
       <c r="G145">
-        <v>0.99504349999999997</v>
+        <v>1.0045500999999999</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="B146" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="C146">
-        <v>294.40186</v>
+        <v>365.53739999999999</v>
       </c>
       <c r="D146">
-        <v>295.89999999999998</v>
+        <v>367</v>
       </c>
       <c r="E146" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="F146" t="b">
         <v>1</v>
       </c>
       <c r="G146">
-        <v>0.99493699999999996</v>
+        <v>0.99601479999999998</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="B147" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="C147">
-        <v>219.87533999999999</v>
+        <v>138.88466</v>
       </c>
       <c r="D147">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="E147" t="s">
-        <v>130</v>
+        <v>314</v>
       </c>
       <c r="F147" t="b">
         <v>1</v>
       </c>
       <c r="G147">
-        <v>0.99491099999999999</v>
+        <v>1.0100701999999999</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B148" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C148">
-        <v>220.12227999999999</v>
+        <v>218.99525</v>
       </c>
       <c r="D148">
-        <v>221.3</v>
+        <v>220</v>
       </c>
       <c r="E148" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
       <c r="F148" t="b">
         <v>1</v>
       </c>
       <c r="G148">
-        <v>0.99467819999999996</v>
+        <v>0.99543300000000001</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="B149" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="C149">
-        <v>229.72022999999999</v>
+        <v>246.80171000000001</v>
       </c>
       <c r="D149">
-        <v>231</v>
+        <v>249.7</v>
       </c>
       <c r="E149" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="F149" t="b">
         <v>1</v>
       </c>
       <c r="G149">
-        <v>0.99445987000000002</v>
+        <v>0.98839295000000005</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B150" t="s">
         <v>213</v>
       </c>
       <c r="C150">
-        <v>239.65039999999999</v>
+        <v>156.28403</v>
       </c>
       <c r="D150">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E150" t="s">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="F150" t="b">
         <v>1</v>
       </c>
       <c r="G150">
-        <v>0.99439999999999995</v>
+        <v>1.0018206999999999</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="B151" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="C151">
-        <v>293.12121999999999</v>
+        <v>488.08819999999997</v>
       </c>
       <c r="D151">
-        <v>294.8</v>
+        <v>489.2</v>
       </c>
       <c r="E151" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="F151" t="b">
         <v>1</v>
       </c>
       <c r="G151">
-        <v>0.99430540000000001</v>
+        <v>0.99772729999999998</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="B152" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="C152">
-        <v>142.40692000000001</v>
+        <v>164.00389000000001</v>
       </c>
       <c r="D152">
-        <v>286.5</v>
+        <v>164</v>
       </c>
       <c r="E152" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="F152" t="b">
         <v>1</v>
       </c>
       <c r="G152">
-        <v>0.99411464000000005</v>
+        <v>1.0000237000000001</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="B153" t="s">
         <v>213</v>
       </c>
       <c r="C153">
-        <v>273.35469999999998</v>
+        <v>374.48532</v>
       </c>
       <c r="D153">
-        <v>275</v>
+        <v>373</v>
       </c>
       <c r="E153" t="s">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="F153" t="b">
         <v>1</v>
       </c>
       <c r="G153">
-        <v>0.99401709999999999</v>
+        <v>1.0039821</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="B154" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="C154">
-        <v>364.79318000000001</v>
+        <v>204.32310000000001</v>
       </c>
       <c r="D154">
-        <v>367</v>
+        <v>201</v>
       </c>
       <c r="E154" t="s">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="F154" t="b">
         <v>1</v>
       </c>
       <c r="G154">
-        <v>0.99398684999999998</v>
+        <v>1.0165329000000001</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="B155" t="s">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="C155">
-        <v>197.16749999999999</v>
+        <v>377.80993999999998</v>
       </c>
       <c r="D155">
-        <v>198.4</v>
+        <v>383</v>
       </c>
       <c r="E155" t="s">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c r="F155" t="b">
         <v>1</v>
       </c>
       <c r="G155">
-        <v>0.9937878</v>
+        <v>0.98644894000000005</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="B156" t="s">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="C156">
-        <v>225.56717</v>
+        <v>122.88418</v>
       </c>
       <c r="D156">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E156" t="s">
-        <v>30</v>
+        <v>318</v>
       </c>
       <c r="F156" t="b">
         <v>1</v>
       </c>
       <c r="G156">
-        <v>0.99368800000000002</v>
+        <v>0.99100140000000003</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="C157">
-        <v>205.27843999999999</v>
+        <v>288.69846000000001</v>
       </c>
       <c r="D157">
-        <v>206.6</v>
+        <v>583</v>
       </c>
       <c r="E157" t="s">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="F157" t="b">
         <v>1</v>
       </c>
       <c r="G157">
-        <v>0.99360329999999997</v>
+        <v>0.99038919999999997</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="C158">
-        <v>123.00476</v>
+        <v>259.10577000000001</v>
       </c>
       <c r="D158">
-        <v>123.8</v>
+        <v>261</v>
       </c>
       <c r="E158" t="s">
-        <v>137</v>
+        <v>318</v>
       </c>
       <c r="F158" t="b">
         <v>1</v>
       </c>
       <c r="G158">
-        <v>0.99357640000000003</v>
+        <v>0.99274240000000002</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>184</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="C159">
-        <v>163.40619000000001</v>
+        <v>268.02395999999999</v>
       </c>
       <c r="D159">
-        <v>329</v>
+        <v>271</v>
       </c>
       <c r="E159" t="s">
-        <v>179</v>
+        <v>318</v>
       </c>
       <c r="F159" t="b">
         <v>1</v>
       </c>
       <c r="G159">
-        <v>0.99335070000000003</v>
+        <v>0.98901826000000004</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C160">
-        <v>370.31308000000001</v>
+        <v>97.067710000000005</v>
       </c>
       <c r="D160">
-        <v>372.8</v>
+        <v>97.1</v>
       </c>
       <c r="E160" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="F160" t="b">
         <v>1</v>
       </c>
       <c r="G160">
-        <v>0.99332909999999996</v>
+        <v>0.99966747</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="C161">
-        <v>173.77690000000001</v>
+        <v>245.66388000000001</v>
       </c>
       <c r="D161">
-        <v>175</v>
+        <v>247.4</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="F161" t="b">
         <v>1</v>
       </c>
       <c r="G161">
-        <v>0.99301090000000003</v>
+        <v>0.99298257000000001</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B162" t="s">
         <v>248</v>
       </c>
       <c r="C162">
-        <v>245.66388000000001</v>
+        <v>148.03588999999999</v>
       </c>
       <c r="D162">
-        <v>247.4</v>
+        <v>148</v>
       </c>
       <c r="E162" t="s">
-        <v>248</v>
+        <v>318</v>
       </c>
       <c r="F162" t="b">
         <v>1</v>
       </c>
       <c r="G162">
-        <v>0.99298257000000001</v>
+        <v>1.0002424999999999</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>105</v>
+        <v>256</v>
       </c>
       <c r="B163" t="s">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="C163">
-        <v>152.89433</v>
+        <v>391.16327000000001</v>
       </c>
       <c r="D163">
-        <v>154</v>
+        <v>394.8</v>
       </c>
       <c r="E163" t="s">
-        <v>100</v>
+        <v>318</v>
       </c>
       <c r="F163" t="b">
         <v>1</v>
       </c>
       <c r="G163">
-        <v>0.99282029999999999</v>
+        <v>0.99078845999999998</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B164" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C164">
-        <v>259.10577000000001</v>
+        <v>329.44076999999999</v>
       </c>
       <c r="D164">
-        <v>261</v>
+        <v>331</v>
       </c>
       <c r="E164" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="F164" t="b">
         <v>1</v>
       </c>
       <c r="G164">
-        <v>0.99274240000000002</v>
+        <v>0.99528930000000004</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>98</v>
+        <v>260</v>
       </c>
       <c r="B165" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="C165">
-        <v>181.22953999999999</v>
+        <v>123.39146</v>
       </c>
       <c r="D165">
-        <v>182.6</v>
+        <v>123</v>
       </c>
       <c r="E165" t="s">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="F165" t="b">
         <v>1</v>
       </c>
       <c r="G165">
-        <v>0.99249469999999995</v>
+        <v>1.0031825000000001</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="B166" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="C166">
-        <v>220.31197</v>
+        <v>427.75833</v>
       </c>
       <c r="D166">
-        <v>222</v>
+        <v>428</v>
       </c>
       <c r="E166" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="F166" t="b">
         <v>1</v>
       </c>
       <c r="G166">
-        <v>0.99239624000000004</v>
+        <v>0.99943537000000005</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>258</v>
       </c>
       <c r="C167">
-        <v>377.02839999999998</v>
+        <v>140.98158000000001</v>
       </c>
       <c r="D167">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="F167" t="b">
         <v>1</v>
       </c>
       <c r="G167">
-        <v>0.99218004999999998</v>
+        <v>0.99986940000000002</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B168" t="s">
         <v>258</v>
       </c>
       <c r="C168">
-        <v>139.60855000000001</v>
+        <v>383.80703999999997</v>
       </c>
       <c r="D168">
-        <v>281.60000000000002</v>
+        <v>383</v>
       </c>
       <c r="E168" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="F168" t="b">
         <v>1</v>
       </c>
       <c r="G168">
-        <v>0.99153800000000003</v>
+        <v>1.0021070999999999</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>258</v>
       </c>
       <c r="C169">
-        <v>137.22809000000001</v>
+        <v>439.87533999999999</v>
       </c>
       <c r="D169">
-        <v>276.8</v>
+        <v>442</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="F169" t="b">
         <v>1</v>
       </c>
       <c r="G169">
-        <v>0.99153243999999996</v>
+        <v>0.99519305999999996</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="B170" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C170">
-        <v>122.88418</v>
+        <v>121.51643</v>
       </c>
       <c r="D170">
-        <v>248</v>
+        <v>122</v>
       </c>
       <c r="E170" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="F170" t="b">
         <v>1</v>
       </c>
       <c r="G170">
-        <v>0.99100140000000003</v>
+        <v>0.99603635000000001</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B171" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C171">
-        <v>391.16327000000001</v>
+        <v>370.31308000000001</v>
       </c>
       <c r="D171">
-        <v>394.8</v>
+        <v>372.8</v>
       </c>
       <c r="E171" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="F171" t="b">
         <v>1</v>
       </c>
       <c r="G171">
-        <v>0.99078845999999998</v>
+        <v>0.99332909999999996</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="B172" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C172">
-        <v>288.69846000000001</v>
+        <v>186.27788000000001</v>
       </c>
       <c r="D172">
-        <v>583</v>
+        <v>186.7</v>
       </c>
       <c r="E172" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="F172" t="b">
         <v>1</v>
       </c>
       <c r="G172">
-        <v>0.99038919999999997</v>
+        <v>0.99773909999999999</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="B173" t="s">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c r="C173">
-        <v>244.37415999999999</v>
+        <v>139.60855000000001</v>
       </c>
       <c r="D173">
-        <v>246.8</v>
+        <v>281.60000000000002</v>
       </c>
       <c r="E173" t="s">
-        <v>130</v>
+        <v>319</v>
       </c>
       <c r="F173" t="b">
         <v>1</v>
       </c>
       <c r="G173">
-        <v>0.99017084</v>
+        <v>0.99153800000000003</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="B174" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C174">
-        <v>268.02395999999999</v>
+        <v>293.67437999999999</v>
       </c>
       <c r="D174">
-        <v>271</v>
+        <v>294.39999999999998</v>
       </c>
       <c r="E174" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="F174" t="b">
         <v>1</v>
       </c>
       <c r="G174">
-        <v>0.98901826000000004</v>
+        <v>0.99753530000000001</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="B175" t="s">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c r="C175">
-        <v>188.59439</v>
+        <v>294.40186</v>
       </c>
       <c r="D175">
-        <v>381.4</v>
+        <v>295.89999999999998</v>
       </c>
       <c r="E175" t="s">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="F175" t="b">
         <v>1</v>
       </c>
       <c r="G175">
-        <v>0.98895854000000005</v>
+        <v>0.99493699999999996</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="B176" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="C176">
-        <v>246.80171000000001</v>
+        <v>439.52078</v>
       </c>
       <c r="D176">
-        <v>249.7</v>
+        <v>219.9</v>
       </c>
       <c r="E176" t="s">
-        <v>213</v>
+        <v>319</v>
       </c>
       <c r="F176" t="b">
         <v>1</v>
       </c>
       <c r="G176">
-        <v>0.98839295000000005</v>
+        <v>0.99936515000000004</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="B177" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C177">
-        <v>377.80993999999998</v>
+        <v>294.73250000000002</v>
       </c>
       <c r="D177">
-        <v>383</v>
+        <v>295.89999999999998</v>
       </c>
       <c r="E177" t="s">
-        <v>246</v>
+        <v>319</v>
       </c>
       <c r="F177" t="b">
         <v>1</v>
       </c>
       <c r="G177">
-        <v>0.98644894000000005</v>
+        <v>0.99605449999999995</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="B178" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="C178">
-        <v>250.80939000000001</v>
+        <v>329.8</v>
       </c>
       <c r="D178">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="E178" t="s">
-        <v>201</v>
+        <v>319</v>
       </c>
       <c r="F178" t="b">
         <v>1</v>
       </c>
       <c r="G178">
-        <v>0.98356619999999995</v>
+        <v>0.9963746</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="B179" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="C179">
-        <v>205.15764999999999</v>
+        <v>188.70337000000001</v>
       </c>
       <c r="D179">
-        <v>417.7</v>
+        <v>189</v>
       </c>
       <c r="E179" t="s">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="F179" t="b">
         <v>1</v>
       </c>
       <c r="G179">
-        <v>0.98232054999999996</v>
+        <v>0.99843055000000003</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>2</v>
+        <v>277</v>
       </c>
       <c r="B180" t="s">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="C180">
-        <v>371.96749999999997</v>
+        <v>163.49171000000001</v>
       </c>
       <c r="D180">
-        <v>439.6</v>
+        <v>325</v>
       </c>
       <c r="E180" t="s">
-        <v>1</v>
+        <v>319</v>
       </c>
       <c r="F180" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <v>1.0061028000000001</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B181" t="s">
         <v>1</v>
       </c>
       <c r="C181">
-        <v>147.47550000000001</v>
+        <v>371.96749999999997</v>
       </c>
       <c r="D181">
-        <v>174</v>
+        <v>439.6</v>
       </c>
       <c r="E181" t="s">
-        <v>1</v>
+        <v>294</v>
       </c>
       <c r="F181" t="b">
         <v>0</v>
@@ -5900,19 +5987,19 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B182" t="s">
         <v>1</v>
       </c>
       <c r="C182">
-        <v>199.91985</v>
+        <v>147.47550000000001</v>
       </c>
       <c r="D182">
-        <v>310</v>
+        <v>174</v>
       </c>
       <c r="E182" t="s">
-        <v>1</v>
+        <v>294</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
@@ -5920,19 +6007,19 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B183" t="s">
         <v>1</v>
       </c>
       <c r="C183">
-        <v>510.22025000000002</v>
+        <v>199.91985</v>
       </c>
       <c r="D183">
-        <v>393.1</v>
+        <v>310</v>
       </c>
       <c r="E183" t="s">
-        <v>1</v>
+        <v>294</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
@@ -5940,19 +6027,19 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B184" t="s">
         <v>1</v>
       </c>
       <c r="C184">
-        <v>247.91245000000001</v>
+        <v>510.22025000000002</v>
       </c>
       <c r="D184">
-        <v>391.4</v>
+        <v>393.1</v>
       </c>
       <c r="E184" t="s">
-        <v>1</v>
+        <v>294</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
@@ -5960,19 +6047,19 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B185" t="s">
         <v>1</v>
       </c>
       <c r="C185">
-        <v>430.15199999999999</v>
+        <v>247.91245000000001</v>
       </c>
       <c r="D185">
-        <v>341.9</v>
+        <v>391.4</v>
       </c>
       <c r="E185" t="s">
-        <v>1</v>
+        <v>294</v>
       </c>
       <c r="F185" t="b">
         <v>0</v>
@@ -5980,19 +6067,19 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B186" t="s">
         <v>1</v>
       </c>
       <c r="C186">
-        <v>289.92183999999997</v>
+        <v>430.15199999999999</v>
       </c>
       <c r="D186">
-        <v>230.8</v>
+        <v>341.9</v>
       </c>
       <c r="E186" t="s">
-        <v>1</v>
+        <v>294</v>
       </c>
       <c r="F186" t="b">
         <v>0</v>
@@ -6000,19 +6087,19 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C187">
-        <v>562.00599999999997</v>
+        <v>289.92183999999997</v>
       </c>
       <c r="D187">
-        <v>354</v>
+        <v>230.8</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>294</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
@@ -6020,19 +6107,19 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B188" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C188">
-        <v>219.30814000000001</v>
+        <v>562.00599999999997</v>
       </c>
       <c r="D188">
-        <v>322.10000000000002</v>
+        <v>354</v>
       </c>
       <c r="E188" t="s">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="F188" t="b">
         <v>0</v>
@@ -6040,19 +6127,19 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B189" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C189">
-        <v>330.62056999999999</v>
+        <v>219.30814000000001</v>
       </c>
       <c r="D189">
-        <v>219</v>
+        <v>322.10000000000002</v>
       </c>
       <c r="E189" t="s">
-        <v>25</v>
+        <v>296</v>
       </c>
       <c r="F189" t="b">
         <v>0</v>
@@ -6060,19 +6147,19 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B190" t="s">
         <v>25</v>
       </c>
       <c r="C190">
-        <v>249.30779999999999</v>
+        <v>330.62056999999999</v>
       </c>
       <c r="D190">
-        <v>331</v>
+        <v>219</v>
       </c>
       <c r="E190" t="s">
-        <v>25</v>
+        <v>298</v>
       </c>
       <c r="F190" t="b">
         <v>0</v>
@@ -6080,19 +6167,19 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B191" t="s">
         <v>25</v>
       </c>
       <c r="C191">
-        <v>501.03424000000001</v>
+        <v>249.30779999999999</v>
       </c>
       <c r="D191">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="E191" t="s">
-        <v>25</v>
+        <v>298</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
@@ -6100,19 +6187,19 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B192" t="s">
         <v>25</v>
       </c>
       <c r="C192">
-        <v>338.26</v>
+        <v>501.03424000000001</v>
       </c>
       <c r="D192">
-        <v>447</v>
+        <v>326</v>
       </c>
       <c r="E192" t="s">
-        <v>25</v>
+        <v>298</v>
       </c>
       <c r="F192" t="b">
         <v>0</v>
@@ -6120,19 +6207,19 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B193" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C193">
-        <v>384.38467000000003</v>
+        <v>338.26</v>
       </c>
       <c r="D193">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="E193" t="s">
-        <v>30</v>
+        <v>298</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
@@ -6140,19 +6227,19 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B194" t="s">
         <v>30</v>
       </c>
       <c r="C194">
-        <v>180.80931000000001</v>
+        <v>384.38467000000003</v>
       </c>
       <c r="D194">
-        <v>120</v>
+        <v>393</v>
       </c>
       <c r="E194" t="s">
-        <v>30</v>
+        <v>299</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
@@ -6160,19 +6247,19 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B195" t="s">
         <v>30</v>
       </c>
       <c r="C195">
-        <v>192.28657999999999</v>
+        <v>180.80931000000001</v>
       </c>
       <c r="D195">
-        <v>321</v>
+        <v>120</v>
       </c>
       <c r="E195" t="s">
-        <v>30</v>
+        <v>299</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
@@ -6180,19 +6267,19 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B196" t="s">
         <v>30</v>
       </c>
       <c r="C196">
-        <v>211.45940999999999</v>
+        <v>192.28657999999999</v>
       </c>
       <c r="D196">
-        <v>160.4</v>
+        <v>321</v>
       </c>
       <c r="E196" t="s">
-        <v>30</v>
+        <v>299</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
@@ -6200,19 +6287,19 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B197" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C197">
-        <v>299.14004999999997</v>
+        <v>211.45940999999999</v>
       </c>
       <c r="D197">
-        <v>396</v>
+        <v>160.4</v>
       </c>
       <c r="E197" t="s">
-        <v>52</v>
+        <v>299</v>
       </c>
       <c r="F197" t="b">
         <v>0</v>
@@ -6220,19 +6307,19 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B198" t="s">
         <v>52</v>
       </c>
       <c r="C198">
-        <v>164.43342999999999</v>
+        <v>299.14004999999997</v>
       </c>
       <c r="D198">
-        <v>130</v>
+        <v>396</v>
       </c>
       <c r="E198" t="s">
-        <v>52</v>
+        <v>300</v>
       </c>
       <c r="F198" t="b">
         <v>0</v>
@@ -6240,19 +6327,19 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B199" t="s">
         <v>52</v>
       </c>
       <c r="C199">
-        <v>333.77760000000001</v>
+        <v>164.43342999999999</v>
       </c>
       <c r="D199">
-        <v>501.1</v>
+        <v>130</v>
       </c>
       <c r="E199" t="s">
-        <v>52</v>
+        <v>300</v>
       </c>
       <c r="F199" t="b">
         <v>0</v>
@@ -6260,19 +6347,19 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B200" t="s">
         <v>52</v>
       </c>
       <c r="C200">
-        <v>388.14382999999998</v>
+        <v>333.77760000000001</v>
       </c>
       <c r="D200">
-        <v>260.7</v>
+        <v>501.1</v>
       </c>
       <c r="E200" t="s">
-        <v>52</v>
+        <v>300</v>
       </c>
       <c r="F200" t="b">
         <v>0</v>
@@ -6280,19 +6367,19 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B201" t="s">
         <v>52</v>
       </c>
       <c r="C201">
-        <v>395.25585999999998</v>
+        <v>388.14382999999998</v>
       </c>
       <c r="D201">
-        <v>263.89999999999998</v>
+        <v>260.7</v>
       </c>
       <c r="E201" t="s">
-        <v>52</v>
+        <v>300</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
@@ -6300,19 +6387,19 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B202" t="s">
         <v>52</v>
       </c>
       <c r="C202">
-        <v>485.26114000000001</v>
+        <v>395.25585999999998</v>
       </c>
       <c r="D202">
-        <v>218</v>
+        <v>263.89999999999998</v>
       </c>
       <c r="E202" t="s">
-        <v>52</v>
+        <v>300</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
@@ -6320,19 +6407,19 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B203" t="s">
         <v>52</v>
       </c>
       <c r="C203">
-        <v>229.85794000000001</v>
+        <v>485.26114000000001</v>
       </c>
       <c r="D203">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="E203" t="s">
-        <v>52</v>
+        <v>300</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
@@ -6340,19 +6427,19 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B204" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C204">
-        <v>165.94929999999999</v>
+        <v>229.85794000000001</v>
       </c>
       <c r="D204">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="E204" t="s">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="F204" t="b">
         <v>0</v>
@@ -6360,19 +6447,19 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B205" t="s">
         <v>64</v>
       </c>
       <c r="C205">
-        <v>146.50310999999999</v>
+        <v>165.94929999999999</v>
       </c>
       <c r="D205">
-        <v>219.9</v>
+        <v>249</v>
       </c>
       <c r="E205" t="s">
-        <v>64</v>
+        <v>301</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>
@@ -6380,19 +6467,19 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B206" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C206">
-        <v>141.29845</v>
+        <v>146.50310999999999</v>
       </c>
       <c r="D206">
-        <v>110</v>
+        <v>219.9</v>
       </c>
       <c r="E206" t="s">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="F206" t="b">
         <v>0</v>
@@ -6400,19 +6487,19 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B207" t="s">
         <v>79</v>
       </c>
       <c r="C207">
-        <v>106.22288500000001</v>
+        <v>141.29845</v>
       </c>
       <c r="D207">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="E207" t="s">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="F207" t="b">
         <v>0</v>
@@ -6420,19 +6507,19 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B208" t="s">
         <v>79</v>
       </c>
       <c r="C208">
-        <v>134.0821</v>
+        <v>106.22288500000001</v>
       </c>
       <c r="D208">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="E208" t="s">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="F208" t="b">
         <v>0</v>
@@ -6440,19 +6527,19 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B209" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C209">
-        <v>148.99408</v>
+        <v>134.0821</v>
       </c>
       <c r="D209">
-        <v>447</v>
+        <v>164</v>
       </c>
       <c r="E209" t="s">
-        <v>100</v>
+        <v>302</v>
       </c>
       <c r="F209" t="b">
         <v>0</v>
@@ -6460,19 +6547,19 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B210" t="s">
         <v>100</v>
       </c>
       <c r="C210">
-        <v>122.57119</v>
+        <v>148.99408</v>
       </c>
       <c r="D210">
-        <v>163</v>
+        <v>447</v>
       </c>
       <c r="E210" t="s">
-        <v>100</v>
+        <v>303</v>
       </c>
       <c r="F210" t="b">
         <v>0</v>
@@ -6480,19 +6567,19 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B211" t="s">
         <v>100</v>
       </c>
       <c r="C211">
-        <v>150.73845</v>
+        <v>122.57119</v>
       </c>
       <c r="D211">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="E211" t="s">
-        <v>100</v>
+        <v>303</v>
       </c>
       <c r="F211" t="b">
         <v>0</v>
@@ -6500,19 +6587,19 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B212" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C212">
-        <v>298.79468000000003</v>
+        <v>150.73845</v>
       </c>
       <c r="D212">
-        <v>397</v>
+        <v>205</v>
       </c>
       <c r="E212" t="s">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="F212" t="b">
         <v>0</v>
@@ -6520,19 +6607,19 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B213" t="s">
         <v>111</v>
       </c>
       <c r="C213">
-        <v>292.96789999999999</v>
+        <v>298.79468000000003</v>
       </c>
       <c r="D213">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="E213" t="s">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="F213" t="b">
         <v>0</v>
@@ -6540,19 +6627,19 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B214" t="s">
         <v>111</v>
       </c>
       <c r="C214">
-        <v>258.35293999999999</v>
+        <v>292.96789999999999</v>
       </c>
       <c r="D214">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="E214" t="s">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="F214" t="b">
         <v>0</v>
@@ -6560,19 +6647,19 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B215" t="s">
         <v>111</v>
       </c>
       <c r="C215">
-        <v>401.57350000000002</v>
+        <v>258.35293999999999</v>
       </c>
       <c r="D215">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E215" t="s">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="F215" t="b">
         <v>0</v>
@@ -6580,19 +6667,19 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B216" t="s">
         <v>111</v>
       </c>
       <c r="C216">
-        <v>398.02659999999997</v>
+        <v>401.57350000000002</v>
       </c>
       <c r="D216">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E216" t="s">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="F216" t="b">
         <v>0</v>
@@ -6600,19 +6687,19 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B217" t="s">
         <v>111</v>
       </c>
       <c r="C217">
-        <v>196.55174</v>
+        <v>398.02659999999997</v>
       </c>
       <c r="D217">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E217" t="s">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="F217" t="b">
         <v>0</v>
@@ -6620,19 +6707,19 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B218" t="s">
         <v>111</v>
       </c>
       <c r="C218">
-        <v>151.65134</v>
+        <v>196.55174</v>
       </c>
       <c r="D218">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="E218" t="s">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="F218" t="b">
         <v>0</v>
@@ -6640,19 +6727,19 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B219" t="s">
         <v>111</v>
       </c>
       <c r="C219">
-        <v>97.433359999999993</v>
+        <v>151.65134</v>
       </c>
       <c r="D219">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="E219" t="s">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="F219" t="b">
         <v>0</v>
@@ -6660,19 +6747,19 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B220" t="s">
         <v>111</v>
       </c>
       <c r="C220">
-        <v>294.00740000000002</v>
+        <v>97.433359999999993</v>
       </c>
       <c r="D220">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="E220" t="s">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="F220" t="b">
         <v>0</v>
@@ -6680,19 +6767,19 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B221" t="s">
         <v>111</v>
       </c>
       <c r="C221">
-        <v>221.42885000000001</v>
+        <v>294.00740000000002</v>
       </c>
       <c r="D221">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E221" t="s">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="F221" t="b">
         <v>0</v>
@@ -6700,19 +6787,19 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B222" t="s">
         <v>111</v>
       </c>
       <c r="C222">
-        <v>672.97540000000004</v>
+        <v>221.42885000000001</v>
       </c>
       <c r="D222">
-        <v>444.7</v>
+        <v>196</v>
       </c>
       <c r="E222" t="s">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="F222" t="b">
         <v>0</v>
@@ -6720,19 +6807,19 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B223" t="s">
         <v>111</v>
       </c>
       <c r="C223">
-        <v>209.41368</v>
+        <v>672.97540000000004</v>
       </c>
       <c r="D223">
-        <v>274</v>
+        <v>444.7</v>
       </c>
       <c r="E223" t="s">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="F223" t="b">
         <v>0</v>
@@ -6740,19 +6827,19 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B224" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C224">
-        <v>130.8955</v>
+        <v>209.41368</v>
       </c>
       <c r="D224">
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="E224" t="s">
-        <v>137</v>
+        <v>304</v>
       </c>
       <c r="F224" t="b">
         <v>0</v>
@@ -6760,19 +6847,19 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B225" t="s">
         <v>137</v>
       </c>
       <c r="C225">
-        <v>214.71767</v>
+        <v>130.8955</v>
       </c>
       <c r="D225">
-        <v>323.10000000000002</v>
+        <v>137</v>
       </c>
       <c r="E225" t="s">
-        <v>137</v>
+        <v>306</v>
       </c>
       <c r="F225" t="b">
         <v>0</v>
@@ -6780,19 +6867,19 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B226" t="s">
         <v>137</v>
       </c>
       <c r="C226">
-        <v>155.46350000000001</v>
+        <v>214.71767</v>
       </c>
       <c r="D226">
-        <v>239.9</v>
+        <v>323.10000000000002</v>
       </c>
       <c r="E226" t="s">
-        <v>137</v>
+        <v>306</v>
       </c>
       <c r="F226" t="b">
         <v>0</v>
@@ -6800,19 +6887,19 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B227" t="s">
         <v>137</v>
       </c>
       <c r="C227">
-        <v>445.63186999999999</v>
+        <v>155.46350000000001</v>
       </c>
       <c r="D227">
-        <v>336.6</v>
+        <v>239.9</v>
       </c>
       <c r="E227" t="s">
-        <v>137</v>
+        <v>306</v>
       </c>
       <c r="F227" t="b">
         <v>0</v>
@@ -6820,19 +6907,19 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B228" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C228">
-        <v>197.56975</v>
+        <v>445.63186999999999</v>
       </c>
       <c r="D228">
-        <v>266</v>
+        <v>336.6</v>
       </c>
       <c r="E228" t="s">
-        <v>148</v>
+        <v>306</v>
       </c>
       <c r="F228" t="b">
         <v>0</v>
@@ -6840,19 +6927,19 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B229" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C229">
-        <v>207.19120000000001</v>
+        <v>197.56975</v>
       </c>
       <c r="D229">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="E229" t="s">
-        <v>152</v>
+        <v>307</v>
       </c>
       <c r="F229" t="b">
         <v>0</v>
@@ -6860,19 +6947,19 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B230" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C230">
-        <v>222.58779999999999</v>
+        <v>331.91665999999998</v>
       </c>
       <c r="D230">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E230" t="s">
-        <v>152</v>
+        <v>308</v>
       </c>
       <c r="F230" t="b">
         <v>0</v>
@@ -6880,19 +6967,19 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B231" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C231">
-        <v>331.91665999999998</v>
+        <v>207.19120000000001</v>
       </c>
       <c r="D231">
-        <v>292</v>
+        <v>139</v>
       </c>
       <c r="E231" t="s">
-        <v>150</v>
+        <v>309</v>
       </c>
       <c r="F231" t="b">
         <v>0</v>
@@ -6900,19 +6987,19 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B232" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C232">
-        <v>195.26003</v>
+        <v>222.58779999999999</v>
       </c>
       <c r="D232">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="E232" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="F232" t="b">
         <v>0</v>
@@ -6920,19 +7007,19 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B233" t="s">
         <v>163</v>
       </c>
       <c r="C233">
-        <v>219.94485</v>
+        <v>195.26003</v>
       </c>
       <c r="D233">
-        <v>331</v>
+        <v>209</v>
       </c>
       <c r="E233" t="s">
-        <v>163</v>
+        <v>310</v>
       </c>
       <c r="F233" t="b">
         <v>0</v>
@@ -6940,19 +7027,19 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B234" t="s">
         <v>163</v>
       </c>
       <c r="C234">
-        <v>524.7989</v>
+        <v>219.94485</v>
       </c>
       <c r="D234">
-        <v>596</v>
+        <v>331</v>
       </c>
       <c r="E234" t="s">
-        <v>163</v>
+        <v>310</v>
       </c>
       <c r="F234" t="b">
         <v>0</v>
@@ -6960,19 +7047,19 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B235" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C235">
-        <v>260.91376000000002</v>
+        <v>524.7989</v>
       </c>
       <c r="D235">
-        <v>194</v>
+        <v>596</v>
       </c>
       <c r="E235" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c r="F235" t="b">
         <v>0</v>
@@ -6980,19 +7067,19 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B236" t="s">
         <v>179</v>
       </c>
       <c r="C236">
-        <v>74.829049999999995</v>
+        <v>260.91376000000002</v>
       </c>
       <c r="D236">
-        <v>301</v>
+        <v>194</v>
       </c>
       <c r="E236" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="F236" t="b">
         <v>0</v>
@@ -7012,7 +7099,7 @@
         <v>436.2</v>
       </c>
       <c r="E237" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="F237" t="b">
         <v>0</v>
@@ -7032,7 +7119,7 @@
         <v>172.2</v>
       </c>
       <c r="E238" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="F238" t="b">
         <v>0</v>
@@ -7052,7 +7139,7 @@
         <v>585</v>
       </c>
       <c r="E239" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="F239" t="b">
         <v>0</v>
@@ -7072,7 +7159,7 @@
         <v>203</v>
       </c>
       <c r="E240" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="F240" t="b">
         <v>0</v>
@@ -7092,7 +7179,7 @@
         <v>236</v>
       </c>
       <c r="E241" t="s">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c r="F241" t="b">
         <v>0</v>
@@ -7112,7 +7199,7 @@
         <v>184.8</v>
       </c>
       <c r="E242" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="F242" t="b">
         <v>0</v>
@@ -7132,7 +7219,7 @@
         <v>109</v>
       </c>
       <c r="E243" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="F243" t="b">
         <v>0</v>
@@ -7152,7 +7239,7 @@
         <v>230</v>
       </c>
       <c r="E244" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="F244" t="b">
         <v>0</v>
@@ -7172,7 +7259,7 @@
         <v>220</v>
       </c>
       <c r="E245" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="F245" t="b">
         <v>0</v>
@@ -7192,7 +7279,7 @@
         <v>289.7</v>
       </c>
       <c r="E246" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="F246" t="b">
         <v>0</v>
@@ -7212,7 +7299,7 @@
         <v>323.5</v>
       </c>
       <c r="E247" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="F247" t="b">
         <v>0</v>
@@ -7232,7 +7319,7 @@
         <v>221</v>
       </c>
       <c r="E248" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="F248" t="b">
         <v>0</v>
@@ -7252,7 +7339,7 @@
         <v>327.7</v>
       </c>
       <c r="E249" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="F249" t="b">
         <v>0</v>
@@ -7272,7 +7359,7 @@
         <v>328.4</v>
       </c>
       <c r="E250" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="F250" t="b">
         <v>0</v>
@@ -7292,7 +7379,7 @@
         <v>433.1</v>
       </c>
       <c r="E251" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="F251" t="b">
         <v>0</v>
@@ -7312,7 +7399,7 @@
         <v>348</v>
       </c>
       <c r="E252" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="F252" t="b">
         <v>0</v>
@@ -7332,7 +7419,7 @@
         <v>494.8</v>
       </c>
       <c r="E253" t="s">
-        <v>248</v>
+        <v>318</v>
       </c>
       <c r="F253" t="b">
         <v>0</v>
@@ -7352,7 +7439,7 @@
         <v>445</v>
       </c>
       <c r="E254" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="F254" t="b">
         <v>0</v>
@@ -7372,7 +7459,7 @@
         <v>270</v>
       </c>
       <c r="E255" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="F255" t="b">
         <v>0</v>
@@ -7392,15 +7479,15 @@
         <v>220</v>
       </c>
       <c r="E256" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="F256" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="I3:L28">
-    <sortCondition descending="1" ref="J3:J28"/>
+  <sortState ref="A2:G256">
+    <sortCondition descending="1" ref="F2:F256"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
